--- a/z. etc/산출물/작업내용/1920110012_박문수.xlsx
+++ b/z. etc/산출물/작업내용/1920110012_박문수.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\data-lab1\Desktop\개인프로젝트\산출물\작업내용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\data-lab1\Desktop\개인프로젝트\My Portfolio\z. etc\산출물\작업내용\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" tabRatio="630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11085" tabRatio="630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구조도" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
   <si>
     <t>구분</t>
   </si>
@@ -576,6 +576,10 @@
   </si>
   <si>
     <t>작성자</t>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제외</t>
@@ -1171,60 +1175,6 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1242,6 +1192,60 @@
     <xf numFmtId="9" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1595,15 +1599,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="59" customFormat="1" ht="20.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
@@ -1644,7 +1648,7 @@
       <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="72" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -1659,7 +1663,7 @@
       <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="57" t="s">
         <v>146</v>
       </c>
@@ -1672,7 +1676,7 @@
       <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="57" t="s">
         <v>147</v>
       </c>
@@ -1685,7 +1689,7 @@
       <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="57" t="s">
         <v>148</v>
       </c>
@@ -1784,10 +1788,10 @@
       <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="72" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1803,16 +1807,16 @@
       <c r="G5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="72" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1826,12 +1830,12 @@
       <c r="G6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1845,12 +1849,12 @@
       <c r="G7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="1" t="s">
         <v>108</v>
       </c>
@@ -1864,14 +1868,14 @@
       <c r="G8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="72" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1887,12 +1891,12 @@
       <c r="G9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="70"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="1" t="s">
         <v>110</v>
       </c>
@@ -1906,12 +1910,12 @@
       <c r="G10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1925,11 +1929,11 @@
       <c r="G11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="70"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="61" t="s">
         <v>146</v>
       </c>
@@ -1946,12 +1950,12 @@
       <c r="G12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="70"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="72" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1967,13 +1971,13 @@
       <c r="G13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="70"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="72" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="82" t="s">
         <v>149</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1988,13 +1992,13 @@
       <c r="G14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="70"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="73"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="4" t="s">
         <v>151</v>
       </c>
@@ -2007,13 +2011,13 @@
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="70"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="4" t="s">
         <v>152</v>
       </c>
@@ -2026,11 +2030,11 @@
       <c r="G16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="71"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="57" t="s">
         <v>148</v>
       </c>
@@ -2047,8 +2051,8 @@
       <c r="G17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6"/>
@@ -2085,6 +2089,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="H5:H17"/>
+    <mergeCell ref="I5:I17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
@@ -2093,14 +2105,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="H5:H17"/>
-    <mergeCell ref="I5:I17"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2473,8 +2477,8 @@
         <v>77</v>
       </c>
       <c r="G14" s="22">
-        <f>AVERAGE(G15,G34)</f>
-        <v>0.13750000000000001</v>
+        <f>AVERAGE(G16,G21,G25,G27,G32,G34)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2500,7 +2504,7 @@
       </c>
       <c r="G15" s="37">
         <f>AVERAGE(G16,G21,G25,G27,G32)</f>
-        <v>0.27500000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2580,58 +2584,58 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="85" t="str">
+      <c r="C19" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="68">
         <v>43936</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="68">
         <v>43941</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="70">
         <v>0</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="H19" s="85" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="85" t="str">
+      <c r="C20" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="68">
         <v>43936</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="68">
         <v>43941</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="70">
         <v>0</v>
       </c>
-      <c r="H20" s="80"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15" t="s">
@@ -2642,7 +2646,7 @@
       </c>
       <c r="C21" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D21" s="13">
         <v>43942</v>
@@ -2655,8 +2659,8 @@
         <v>4</v>
       </c>
       <c r="G21" s="20">
-        <f>AVERAGE(G22:G24)</f>
-        <v>0</v>
+        <f>AVERAGE(G22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2668,7 +2672,7 @@
       </c>
       <c r="C22" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D22" s="13">
         <v>43942</v>
@@ -2681,58 +2685,62 @@
         <v>4</v>
       </c>
       <c r="G22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="38" t="str">
+      <c r="C23" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="68">
         <v>43942</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="68">
         <v>43946</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="70">
         <v>0</v>
       </c>
+      <c r="H23" s="85" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="38" t="str">
+      <c r="C24" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="68">
         <v>43942</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="68">
         <v>43946</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="70">
         <v>0</v>
       </c>
+      <c r="H24" s="85"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
@@ -2743,7 +2751,7 @@
       </c>
       <c r="C25" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D25" s="13">
         <v>43947</v>
@@ -2757,7 +2765,7 @@
       </c>
       <c r="G25" s="20">
         <f>AVERAGE(G26:G26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2769,7 +2777,7 @@
       </c>
       <c r="C26" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D26" s="13">
         <v>43947</v>
@@ -2782,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2808,7 +2816,7 @@
       </c>
       <c r="G27" s="20">
         <f>AVERAGE(G28:G31)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2845,7 +2853,7 @@
       </c>
       <c r="C29" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Progress</v>
+        <v>Finished</v>
       </c>
       <c r="D29" s="13">
         <v>43961</v>
@@ -2858,7 +2866,7 @@
         <v>37</v>
       </c>
       <c r="G29" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2920,7 +2928,7 @@
       </c>
       <c r="C32" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Progress</v>
       </c>
       <c r="D32" s="13">
         <v>44013</v>
@@ -2934,7 +2942,7 @@
       </c>
       <c r="G32" s="20">
         <f>AVERAGE(G33:G33)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2946,7 +2954,7 @@
       </c>
       <c r="C33" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Progress</v>
       </c>
       <c r="D33" s="13">
         <v>44013</v>
@@ -2959,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3014,8 +3022,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3044,19 +3053,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="27">
       <c r="A2" s="48" t="s">
@@ -3094,10 +3103,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -3123,8 +3132,8 @@
       <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="63" t="s">
         <v>45</v>
       </c>
@@ -3146,8 +3155,8 @@
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="63" t="s">
         <v>46</v>
       </c>
@@ -3169,8 +3178,8 @@
       <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="63" t="s">
         <v>47</v>
       </c>
@@ -3192,8 +3201,8 @@
       <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="63" t="s">
         <v>169</v>
       </c>
@@ -3215,8 +3224,8 @@
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="63" t="s">
         <v>48</v>
       </c>
@@ -3238,8 +3247,8 @@
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
@@ -3259,8 +3268,8 @@
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="63" t="s">
         <v>180</v>
       </c>
@@ -3282,8 +3291,8 @@
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="63" t="s">
         <v>51</v>
       </c>
@@ -3303,8 +3312,8 @@
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="63" t="s">
         <v>181</v>
       </c>
@@ -3326,10 +3335,10 @@
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="88" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="64" t="s">
@@ -3355,8 +3364,8 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="56" t="s">
         <v>182</v>
       </c>
@@ -3378,8 +3387,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="63" t="s">
         <v>178</v>
       </c>
@@ -3401,8 +3410,8 @@
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="63" t="s">
         <v>179</v>
       </c>
@@ -3424,8 +3433,8 @@
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3445,8 +3454,8 @@
       <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="63" t="s">
         <v>180</v>
       </c>
@@ -3468,8 +3477,8 @@
       <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="63" t="s">
         <v>60</v>
       </c>
@@ -3489,8 +3498,8 @@
       <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="63" t="s">
         <v>181</v>
       </c>

--- a/z. etc/산출물/작업내용/1920110012_박문수.xlsx
+++ b/z. etc/산출물/작업내용/1920110012_박문수.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="186">
   <si>
     <t>구분</t>
   </si>
@@ -583,6 +583,23 @@
   </si>
   <si>
     <t>제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,8 +760,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,12 +852,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.49995422223578601"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1175,77 +1194,77 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1269,22 +1288,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1292,6 +1311,15 @@
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -1305,7 +1333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6438900" cy="4305300"/>
+          <a:ext cx="5305425" cy="3547414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,7 +1341,7 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fPrintsWithSheet="0"/>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1581,10 +1609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1599,15 +1630,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="59" customFormat="1" ht="20.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
@@ -1648,7 +1679,7 @@
       <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -1663,7 +1694,7 @@
       <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="57" t="s">
         <v>146</v>
       </c>
@@ -1676,7 +1707,7 @@
       <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="57" t="s">
         <v>147</v>
       </c>
@@ -1689,7 +1720,7 @@
       <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="74"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="57" t="s">
         <v>148</v>
       </c>
@@ -1708,12 +1739,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1733,45 +1767,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="59" customFormat="1" ht="20.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="76" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="77" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1781,17 +1815,17 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="68" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1807,16 +1841,16 @@
       <c r="G5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="68" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1830,12 +1864,12 @@
       <c r="G6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1849,12 +1883,12 @@
       <c r="G7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1" t="s">
         <v>108</v>
       </c>
@@ -1868,14 +1902,14 @@
       <c r="G8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="68" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1891,12 +1925,12 @@
       <c r="G9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="80"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="1" t="s">
         <v>110</v>
       </c>
@@ -1910,12 +1944,12 @@
       <c r="G10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="80"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1929,11 +1963,11 @@
       <c r="G11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="80"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="61" t="s">
         <v>146</v>
       </c>
@@ -1950,12 +1984,12 @@
       <c r="G12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="80"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="68" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1971,13 +2005,13 @@
       <c r="G13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="80"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="82" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="73" t="s">
         <v>149</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1992,13 +2026,13 @@
       <c r="G14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="80"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="4" t="s">
         <v>151</v>
       </c>
@@ -2011,13 +2045,13 @@
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="80"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="4" t="s">
         <v>152</v>
       </c>
@@ -2030,11 +2064,11 @@
       <c r="G16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="81"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="57" t="s">
         <v>148</v>
       </c>
@@ -2051,8 +2085,8 @@
       <c r="G17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6"/>
@@ -2089,6 +2123,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="H5:H17"/>
@@ -2097,27 +2139,22 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2464,7 +2501,7 @@
       </c>
       <c r="C14" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Progress</v>
+        <v>Finished</v>
       </c>
       <c r="D14" s="18">
         <v>43936</v>
@@ -2478,7 +2515,7 @@
       </c>
       <c r="G14" s="22">
         <f>AVERAGE(G16,G21,G25,G27,G32,G34)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2490,7 +2527,7 @@
       </c>
       <c r="C15" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Progress</v>
+        <v>Finished</v>
       </c>
       <c r="D15" s="35">
         <v>43936</v>
@@ -2504,7 +2541,7 @@
       </c>
       <c r="G15" s="37">
         <f>AVERAGE(G16,G21,G25,G27,G32)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2584,58 +2621,58 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="67" t="str">
+      <c r="C19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="86">
         <v>43936</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="86">
         <v>43941</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="87">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="88">
         <v>0</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="81" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="67" t="str">
+      <c r="C20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="86">
         <v>43936</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="86">
         <v>43941</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="87">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="88">
         <v>0</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15" t="s">
@@ -2689,58 +2726,58 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="67" t="str">
+      <c r="C23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="86">
         <v>43942</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="86">
         <v>43946</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="87">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="88">
         <v>0</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="81" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="67" t="str">
+      <c r="C24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="86">
         <v>43942</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="86">
         <v>43946</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F24" s="87">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="88">
         <v>0</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
@@ -2802,7 +2839,7 @@
       </c>
       <c r="C27" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Progress</v>
+        <v>Finished</v>
       </c>
       <c r="D27" s="13">
         <v>43961</v>
@@ -2816,7 +2853,7 @@
       </c>
       <c r="G27" s="20">
         <f>AVERAGE(G28:G31)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2878,7 +2915,7 @@
       </c>
       <c r="C30" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D30" s="13">
         <v>43961</v>
@@ -2891,7 +2928,7 @@
         <v>37</v>
       </c>
       <c r="G30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2903,7 +2940,7 @@
       </c>
       <c r="C31" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D31" s="13">
         <v>43961</v>
@@ -2916,7 +2953,7 @@
         <v>37</v>
       </c>
       <c r="G31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2928,7 +2965,7 @@
       </c>
       <c r="C32" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Progress</v>
+        <v>Finished</v>
       </c>
       <c r="D32" s="13">
         <v>44013</v>
@@ -2942,7 +2979,7 @@
       </c>
       <c r="G32" s="20">
         <f>AVERAGE(G33:G33)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2954,7 +2991,7 @@
       </c>
       <c r="C33" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Progress</v>
+        <v>Finished</v>
       </c>
       <c r="D33" s="13">
         <v>44013</v>
@@ -2967,7 +3004,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2979,7 +3016,7 @@
       </c>
       <c r="C34" s="41" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D34" s="42">
         <v>44042</v>
@@ -2993,7 +3030,7 @@
       </c>
       <c r="G34" s="44">
         <f>AVERAGE(G35,G40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3005,7 +3042,7 @@
       </c>
       <c r="C35" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Not Started</v>
+        <v>Finished</v>
       </c>
       <c r="D35" s="13">
         <v>44042</v>
@@ -3018,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3028,12 +3065,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3053,19 +3093,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="27">
       <c r="A2" s="48" t="s">
@@ -3103,10 +3143,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -3132,8 +3172,8 @@
       <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="63" t="s">
         <v>45</v>
       </c>
@@ -3155,8 +3195,8 @@
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="63" t="s">
         <v>46</v>
       </c>
@@ -3178,8 +3218,8 @@
       <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="63" t="s">
         <v>47</v>
       </c>
@@ -3201,8 +3241,8 @@
       <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="63" t="s">
         <v>169</v>
       </c>
@@ -3224,8 +3264,8 @@
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="63" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3287,8 @@
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
@@ -3268,8 +3308,8 @@
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="63" t="s">
         <v>180</v>
       </c>
@@ -3291,8 +3331,8 @@
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="63" t="s">
         <v>51</v>
       </c>
@@ -3312,8 +3352,8 @@
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="63" t="s">
         <v>181</v>
       </c>
@@ -3335,10 +3375,10 @@
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="84" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="64" t="s">
@@ -3364,8 +3404,8 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="56" t="s">
         <v>182</v>
       </c>
@@ -3387,8 +3427,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="63" t="s">
         <v>178</v>
       </c>
@@ -3410,8 +3450,8 @@
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="63" t="s">
         <v>179</v>
       </c>
@@ -3433,8 +3473,8 @@
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3454,8 +3494,8 @@
       <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="63" t="s">
         <v>180</v>
       </c>
@@ -3477,8 +3517,8 @@
       <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="63" t="s">
         <v>60</v>
       </c>
@@ -3498,8 +3538,8 @@
       <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="63" t="s">
         <v>181</v>
       </c>
@@ -3543,23 +3583,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="19" spans="1:1">
+      <c r="A19" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>